--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9039_RangeIndexTest.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-9039_RangeIndexTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\condition_IntRange_failure (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EIS_Sources\OpenL\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F1C61C-6ED9-4D39-8368-1913791C269F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201D5CB-4912-4CD0-83C0-5D56B2A5F1E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1688" yWindow="2970" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>C1</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>RET1</t>
-  </si>
-  <si>
-    <t>result</t>
   </si>
   <si>
     <t>condition</t>
@@ -479,96 +476,93 @@
   <dimension ref="B8:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.86328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -587,7 +581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -599,7 +593,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
